--- a/Examples/Trello1.xlsx
+++ b/Examples/Trello1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\detle\Documents\GitHub\Get-Trello\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E4658-7147-4961-A0EC-93E127D9A6BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6299487-5BA9-48AD-9A0B-03C1C3487503}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="27855" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="27855" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trello Tasks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -49,7 +49,7 @@
     <t>Card</t>
   </si>
   <si>
-    <t>89d78c8f-4bd2-4d8e-89e8-878173996911</t>
+    <t>a6ecd523-39f9-47da-90e0-f9ff7b3691c4</t>
   </si>
   <si>
     <t>Test #2</t>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
